--- a/WorkingFolder/Tables/micro_reg_history_vol.xlsx
+++ b/WorkingFolder/Tables/micro_reg_history_vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>rincvar I</t>
   </si>
@@ -85,16 +85,16 @@
     <t>R2</t>
   </si>
   <si>
-    <t>-0.03</t>
+    <t>-0.05</t>
   </si>
   <si>
     <t>(0.15)</t>
   </si>
   <si>
-    <t>-1.58***</t>
-  </si>
-  <si>
-    <t>(0.33)</t>
+    <t>-1.51***</t>
+  </si>
+  <si>
+    <t>(0.34)</t>
   </si>
   <si>
     <t>-0.32***</t>
@@ -109,22 +109,31 @@
     <t>(0.03)</t>
   </si>
   <si>
+    <t>-0.48***</t>
+  </si>
+  <si>
+    <t>-0.45***</t>
+  </si>
+  <si>
+    <t>37773</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.27***</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
     <t>-0.49***</t>
   </si>
   <si>
-    <t>-0.46***</t>
-  </si>
-  <si>
-    <t>38924</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.27***</t>
-  </si>
-  <si>
-    <t>-0.50***</t>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
   </si>
   <si>
     <t>0.20***</t>
@@ -133,70 +142,70 @@
     <t>(0.07)</t>
   </si>
   <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>(0.18)</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>(2.26)</t>
+  </si>
+  <si>
+    <t>0.66***</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>-0.02*</t>
+  </si>
+  <si>
+    <t>(0.01)</t>
+  </si>
+  <si>
+    <t>0.09***</t>
+  </si>
+  <si>
+    <t>-0.21***</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>0.40***</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>(0.10)</t>
+  </si>
+  <si>
     <t>0.04</t>
   </si>
   <si>
-    <t>(0.18)</t>
-  </si>
-  <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>(2.23)</t>
-  </si>
-  <si>
-    <t>0.63***</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>-0.03*</t>
-  </si>
-  <si>
-    <t>(0.01)</t>
-  </si>
-  <si>
-    <t>0.09***</t>
-  </si>
-  <si>
-    <t>-0.21***</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>0.40***</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>(0.10)</t>
-  </si>
-  <si>
     <t>-0.02</t>
   </si>
   <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>-0.22***</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.83</t>
-  </si>
-  <si>
-    <t>(2.45)</t>
-  </si>
-  <si>
-    <t>0.35</t>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.54</t>
+  </si>
+  <si>
+    <t>(2.48)</t>
+  </si>
+  <si>
+    <t>0.38</t>
   </si>
   <si>
     <t>(0.24)</t>
@@ -696,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -705,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -716,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -725,7 +734,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -733,31 +742,31 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -765,16 +774,16 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -786,10 +795,10 @@
         <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -803,22 +812,22 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -836,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -856,25 +865,25 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -895,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -912,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -921,16 +930,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -968,25 +977,25 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
         <v>71</v>
       </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -995,13 +1004,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -1021,31 +1030,31 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1053,43 +1062,43 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1097,19 +1106,19 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
@@ -1118,22 +1127,22 @@
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1141,31 +1150,31 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1173,31 +1182,31 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1217,16 +1226,16 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1240,10 +1249,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -1252,10 +1261,10 @@
         <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
